--- a/AmpersandData/FormalAmpersand/Contexts.xlsx
+++ b/AmpersandData/FormalAmpersand/Contexts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\hjo20125\Git\ampersand\ampersandData\FormalAmpersand\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050" activeTab="1"/>
+    <workbookView xWindow="516" yWindow="600" windowWidth="14052" windowHeight="4056" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>7148691</t>
   </si>
@@ -51,9 +56,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Pattern</t>
-  </si>
-  <si>
     <t>Relation</t>
   </si>
   <si>
@@ -121,9 +123,6 @@
   </si>
   <si>
     <t>sessionRole</t>
-  </si>
-  <si>
-    <t>usedPatterns</t>
   </si>
   <si>
     <t>valid</t>
@@ -189,6 +188,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -236,7 +238,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +273,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -486,20 +488,20 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -510,18 +512,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -529,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -539,38 +541,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -581,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>3</v>
@@ -589,19 +588,16 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -615,19 +611,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -644,19 +640,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -673,25 +669,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -700,12 +696,12 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -719,38 +715,38 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
